--- a/SOO_results/DP1000_room_Swift_NDBR50_curve2/iteration/7/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_Swift_NDBR50_curve2/iteration/7/FD_Curve.xlsx
@@ -521,10 +521,10 @@
         <v>0.179965</v>
       </c>
       <c r="B8" t="n">
-        <v>6.45343</v>
+        <v>6.45377</v>
       </c>
       <c r="C8" t="n">
-        <v>6453.43</v>
+        <v>6453.77</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>0.209917</v>
       </c>
       <c r="B9" t="n">
-        <v>7.139220000000001</v>
+        <v>7.611020000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>7139.22</v>
+        <v>7611.02</v>
       </c>
     </row>
     <row r="10">
@@ -543,1022 +543,1022 @@
         <v>0.23987</v>
       </c>
       <c r="B10" t="n">
-        <v>7.65016</v>
+        <v>8.41994</v>
       </c>
       <c r="C10" t="n">
-        <v>7650.16</v>
+        <v>8419.940000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.269824</v>
+        <v>0.269785</v>
       </c>
       <c r="B11" t="n">
-        <v>8.1492</v>
+        <v>8.931330000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>8149.2</v>
+        <v>8931.33</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.299725</v>
+        <v>0.299686</v>
       </c>
       <c r="B12" t="n">
-        <v>8.500200000000001</v>
+        <v>9.467559999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>8500.200000000001</v>
+        <v>9467.559999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.329622</v>
+        <v>0.329582</v>
       </c>
       <c r="B13" t="n">
-        <v>8.754959999999999</v>
+        <v>9.694570000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>8754.959999999999</v>
+        <v>9694.57</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.359523</v>
+        <v>0.359483</v>
       </c>
       <c r="B14" t="n">
-        <v>8.93572</v>
+        <v>9.898870000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>8935.719999999999</v>
+        <v>9898.870000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.389424</v>
+        <v>0.389384</v>
       </c>
       <c r="B15" t="n">
-        <v>9.13461</v>
+        <v>10.0749</v>
       </c>
       <c r="C15" t="n">
-        <v>9134.610000000001</v>
+        <v>10074.9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.419325</v>
+        <v>0.419285</v>
       </c>
       <c r="B16" t="n">
-        <v>9.27591</v>
+        <v>10.1953</v>
       </c>
       <c r="C16" t="n">
-        <v>9275.91</v>
+        <v>10195.3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.449226</v>
+        <v>0.449186</v>
       </c>
       <c r="B17" t="n">
-        <v>9.403350000000001</v>
+        <v>10.2991</v>
       </c>
       <c r="C17" t="n">
-        <v>9403.35</v>
+        <v>10299.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.479127</v>
+        <v>0.479087</v>
       </c>
       <c r="B18" t="n">
-        <v>9.521979999999999</v>
+        <v>10.3779</v>
       </c>
       <c r="C18" t="n">
-        <v>9521.98</v>
+        <v>10377.9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.509028</v>
+        <v>0.508988</v>
       </c>
       <c r="B19" t="n">
-        <v>9.627469999999999</v>
+        <v>10.4459</v>
       </c>
       <c r="C19" t="n">
-        <v>9627.469999999999</v>
+        <v>10445.9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.538929</v>
+        <v>0.53889</v>
       </c>
       <c r="B20" t="n">
-        <v>9.723030000000001</v>
+        <v>10.4989</v>
       </c>
       <c r="C20" t="n">
-        <v>9723.030000000001</v>
+        <v>10498.9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.5688299999999999</v>
+        <v>0.568791</v>
       </c>
       <c r="B21" t="n">
-        <v>9.79848</v>
+        <v>10.5525</v>
       </c>
       <c r="C21" t="n">
-        <v>9798.48</v>
+        <v>10552.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.598844</v>
+        <v>0.598805</v>
       </c>
       <c r="B22" t="n">
-        <v>9.8809</v>
+        <v>10.5948</v>
       </c>
       <c r="C22" t="n">
-        <v>9880.9</v>
+        <v>10594.8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.628985</v>
+        <v>0.628945</v>
       </c>
       <c r="B23" t="n">
-        <v>9.94383</v>
+        <v>10.6343</v>
       </c>
       <c r="C23" t="n">
-        <v>9943.83</v>
+        <v>10634.3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.659129</v>
+        <v>0.65909</v>
       </c>
       <c r="B24" t="n">
-        <v>10.0124</v>
+        <v>10.6643</v>
       </c>
       <c r="C24" t="n">
-        <v>10012.4</v>
+        <v>10664.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.68927</v>
+        <v>0.68923</v>
       </c>
       <c r="B25" t="n">
-        <v>10.0682</v>
+        <v>10.6934</v>
       </c>
       <c r="C25" t="n">
-        <v>10068.2</v>
+        <v>10693.4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.71941</v>
+        <v>0.71937</v>
       </c>
       <c r="B26" t="n">
-        <v>10.1199</v>
+        <v>10.7181</v>
       </c>
       <c r="C26" t="n">
-        <v>10119.9</v>
+        <v>10718.1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.749555</v>
+        <v>0.749515</v>
       </c>
       <c r="B27" t="n">
-        <v>10.171</v>
+        <v>10.739</v>
       </c>
       <c r="C27" t="n">
-        <v>10171</v>
+        <v>10739</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.779695</v>
+        <v>0.779656</v>
       </c>
       <c r="B28" t="n">
-        <v>10.2188</v>
+        <v>10.756</v>
       </c>
       <c r="C28" t="n">
-        <v>10218.8</v>
+        <v>10756</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.80984</v>
+        <v>0.8098</v>
       </c>
       <c r="B29" t="n">
-        <v>10.2619</v>
+        <v>10.7703</v>
       </c>
       <c r="C29" t="n">
-        <v>10261.9</v>
+        <v>10770.3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8399799999999999</v>
+        <v>0.839941</v>
       </c>
       <c r="B30" t="n">
-        <v>10.3011</v>
+        <v>10.7815</v>
       </c>
       <c r="C30" t="n">
-        <v>10301.1</v>
+        <v>10781.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.87012</v>
+        <v>0.870081</v>
       </c>
       <c r="B31" t="n">
-        <v>10.3376</v>
+        <v>10.7902</v>
       </c>
       <c r="C31" t="n">
-        <v>10337.6</v>
+        <v>10790.2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.900265</v>
+        <v>0.900226</v>
       </c>
       <c r="B32" t="n">
-        <v>10.3713</v>
+        <v>10.7968</v>
       </c>
       <c r="C32" t="n">
-        <v>10371.3</v>
+        <v>10796.8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.930405</v>
+        <v>0.930366</v>
       </c>
       <c r="B33" t="n">
-        <v>10.4024</v>
+        <v>10.8014</v>
       </c>
       <c r="C33" t="n">
-        <v>10402.4</v>
+        <v>10801.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.960546</v>
+        <v>0.960506</v>
       </c>
       <c r="B34" t="n">
-        <v>10.4311</v>
+        <v>10.8033</v>
       </c>
       <c r="C34" t="n">
-        <v>10431.1</v>
+        <v>10803.3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.99069</v>
+        <v>0.9906509999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>10.4585</v>
+        <v>10.8031</v>
       </c>
       <c r="C35" t="n">
-        <v>10458.5</v>
+        <v>10803.1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.02083</v>
+        <v>1.02079</v>
       </c>
       <c r="B36" t="n">
-        <v>10.4849</v>
+        <v>10.8012</v>
       </c>
       <c r="C36" t="n">
-        <v>10484.9</v>
+        <v>10801.2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.05097</v>
+        <v>1.05093</v>
       </c>
       <c r="B37" t="n">
-        <v>10.509</v>
+        <v>10.7972</v>
       </c>
       <c r="C37" t="n">
-        <v>10509</v>
+        <v>10797.2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.08112</v>
+        <v>1.08108</v>
       </c>
       <c r="B38" t="n">
-        <v>10.5302</v>
+        <v>10.7912</v>
       </c>
       <c r="C38" t="n">
-        <v>10530.2</v>
+        <v>10791.2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.11126</v>
+        <v>1.11122</v>
       </c>
       <c r="B39" t="n">
-        <v>10.5504</v>
+        <v>10.7834</v>
       </c>
       <c r="C39" t="n">
-        <v>10550.4</v>
+        <v>10783.4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.1414</v>
+        <v>1.14136</v>
       </c>
       <c r="B40" t="n">
-        <v>10.5698</v>
+        <v>10.7737</v>
       </c>
       <c r="C40" t="n">
-        <v>10569.8</v>
+        <v>10773.7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.17154</v>
+        <v>1.1715</v>
       </c>
       <c r="B41" t="n">
-        <v>10.5865</v>
+        <v>10.7616</v>
       </c>
       <c r="C41" t="n">
-        <v>10586.5</v>
+        <v>10761.6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.20168</v>
+        <v>1.20164</v>
       </c>
       <c r="B42" t="n">
-        <v>10.6025</v>
+        <v>10.7476</v>
       </c>
       <c r="C42" t="n">
-        <v>10602.5</v>
+        <v>10747.6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.23183</v>
+        <v>1.23179</v>
       </c>
       <c r="B43" t="n">
-        <v>10.617</v>
+        <v>10.7318</v>
       </c>
       <c r="C43" t="n">
-        <v>10617</v>
+        <v>10731.8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.26197</v>
+        <v>1.26193</v>
       </c>
       <c r="B44" t="n">
-        <v>10.6299</v>
+        <v>10.7141</v>
       </c>
       <c r="C44" t="n">
-        <v>10629.9</v>
+        <v>10714.1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.29211</v>
+        <v>1.29207</v>
       </c>
       <c r="B45" t="n">
-        <v>10.642</v>
+        <v>10.6946</v>
       </c>
       <c r="C45" t="n">
-        <v>10642</v>
+        <v>10694.6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.32225</v>
+        <v>1.32221</v>
       </c>
       <c r="B46" t="n">
-        <v>10.6523</v>
+        <v>10.6733</v>
       </c>
       <c r="C46" t="n">
-        <v>10652.3</v>
+        <v>10673.3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.35239</v>
+        <v>1.35235</v>
       </c>
       <c r="B47" t="n">
-        <v>10.6619</v>
+        <v>10.6498</v>
       </c>
       <c r="C47" t="n">
-        <v>10661.9</v>
+        <v>10649.8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.38246</v>
+        <v>1.38249</v>
       </c>
       <c r="B48" t="n">
-        <v>10.6699</v>
+        <v>10.624</v>
       </c>
       <c r="C48" t="n">
-        <v>10669.9</v>
+        <v>10624</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.41219</v>
+        <v>1.41264</v>
       </c>
       <c r="B49" t="n">
-        <v>10.6769</v>
+        <v>10.5957</v>
       </c>
       <c r="C49" t="n">
-        <v>10676.9</v>
+        <v>10595.7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.44192</v>
+        <v>1.44278</v>
       </c>
       <c r="B50" t="n">
-        <v>10.6829</v>
+        <v>10.5653</v>
       </c>
       <c r="C50" t="n">
-        <v>10682.9</v>
+        <v>10565.3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.47165</v>
+        <v>1.47292</v>
       </c>
       <c r="B51" t="n">
-        <v>10.6875</v>
+        <v>10.5328</v>
       </c>
       <c r="C51" t="n">
-        <v>10687.5</v>
+        <v>10532.8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.50138</v>
+        <v>1.50306</v>
       </c>
       <c r="B52" t="n">
-        <v>10.6912</v>
+        <v>10.4982</v>
       </c>
       <c r="C52" t="n">
-        <v>10691.2</v>
+        <v>10498.2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.53111</v>
+        <v>1.5332</v>
       </c>
       <c r="B53" t="n">
-        <v>10.6938</v>
+        <v>10.4616</v>
       </c>
       <c r="C53" t="n">
-        <v>10693.8</v>
+        <v>10461.6</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.56109</v>
+        <v>1.56335</v>
       </c>
       <c r="B54" t="n">
-        <v>10.6952</v>
+        <v>10.4223</v>
       </c>
       <c r="C54" t="n">
-        <v>10695.2</v>
+        <v>10422.3</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.59139</v>
+        <v>1.59349</v>
       </c>
       <c r="B55" t="n">
-        <v>10.6955</v>
+        <v>10.3806</v>
       </c>
       <c r="C55" t="n">
-        <v>10695.5</v>
+        <v>10380.6</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.62168</v>
+        <v>1.62363</v>
       </c>
       <c r="B56" t="n">
-        <v>10.6945</v>
+        <v>10.3362</v>
       </c>
       <c r="C56" t="n">
-        <v>10694.5</v>
+        <v>10336.2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.65198</v>
+        <v>1.65377</v>
       </c>
       <c r="B57" t="n">
-        <v>10.6923</v>
+        <v>10.2892</v>
       </c>
       <c r="C57" t="n">
-        <v>10692.3</v>
+        <v>10289.2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.68227</v>
+        <v>1.68391</v>
       </c>
       <c r="B58" t="n">
-        <v>10.689</v>
+        <v>10.2397</v>
       </c>
       <c r="C58" t="n">
-        <v>10689</v>
+        <v>10239.7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.71256</v>
+        <v>1.71406</v>
       </c>
       <c r="B59" t="n">
-        <v>10.6846</v>
+        <v>10.1875</v>
       </c>
       <c r="C59" t="n">
-        <v>10684.6</v>
+        <v>10187.5</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.74286</v>
+        <v>1.74419</v>
       </c>
       <c r="B60" t="n">
-        <v>10.679</v>
+        <v>10.1327</v>
       </c>
       <c r="C60" t="n">
-        <v>10679</v>
+        <v>10132.7</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.77315</v>
+        <v>1.77391</v>
       </c>
       <c r="B61" t="n">
-        <v>10.6722</v>
+        <v>10.0754</v>
       </c>
       <c r="C61" t="n">
-        <v>10672.2</v>
+        <v>10075.4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.80344</v>
+        <v>1.80397</v>
       </c>
       <c r="B62" t="n">
-        <v>10.6643</v>
+        <v>10.0148</v>
       </c>
       <c r="C62" t="n">
-        <v>10664.3</v>
+        <v>10014.8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.83373</v>
+        <v>1.83392</v>
       </c>
       <c r="B63" t="n">
-        <v>10.6552</v>
+        <v>9.951450000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>10655.2</v>
+        <v>9951.450000000001</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.86403</v>
+        <v>1.864</v>
       </c>
       <c r="B64" t="n">
-        <v>10.6449</v>
+        <v>9.88456</v>
       </c>
       <c r="C64" t="n">
-        <v>10644.9</v>
+        <v>9884.559999999999</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.89432</v>
+        <v>1.8938</v>
       </c>
       <c r="B65" t="n">
-        <v>10.6334</v>
+        <v>9.81507</v>
       </c>
       <c r="C65" t="n">
-        <v>10633.4</v>
+        <v>9815.07</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.92461</v>
+        <v>1.92401</v>
       </c>
       <c r="B66" t="n">
-        <v>10.6206</v>
+        <v>9.741350000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>10620.6</v>
+        <v>9741.35</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1.95491</v>
+        <v>1.95393</v>
       </c>
       <c r="B67" t="n">
-        <v>10.6061</v>
+        <v>9.6648</v>
       </c>
       <c r="C67" t="n">
-        <v>10606.1</v>
+        <v>9664.799999999999</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1.98495</v>
+        <v>1.98388</v>
       </c>
       <c r="B68" t="n">
-        <v>10.59</v>
+        <v>9.58487</v>
       </c>
       <c r="C68" t="n">
-        <v>10590</v>
+        <v>9584.870000000001</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.01482</v>
+        <v>2.01393</v>
       </c>
       <c r="B69" t="n">
-        <v>10.5728</v>
+        <v>9.50094</v>
       </c>
       <c r="C69" t="n">
-        <v>10572.8</v>
+        <v>9500.940000000001</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.04468</v>
+        <v>2.04378</v>
       </c>
       <c r="B70" t="n">
-        <v>10.5542</v>
+        <v>9.414059999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>10554.2</v>
+        <v>9414.059999999999</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.07455</v>
+        <v>2.07374</v>
       </c>
       <c r="B71" t="n">
-        <v>10.5343</v>
+        <v>9.32347</v>
       </c>
       <c r="C71" t="n">
-        <v>10534.3</v>
+        <v>9323.469999999999</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.10442</v>
+        <v>2.10386</v>
       </c>
       <c r="B72" t="n">
-        <v>10.5129</v>
+        <v>9.22925</v>
       </c>
       <c r="C72" t="n">
-        <v>10512.9</v>
+        <v>9229.25</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.13428</v>
+        <v>2.13372</v>
       </c>
       <c r="B73" t="n">
-        <v>10.49</v>
+        <v>9.132580000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>10490</v>
+        <v>9132.58</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.16415</v>
+        <v>2.16383</v>
       </c>
       <c r="B74" t="n">
-        <v>10.4655</v>
+        <v>9.03124</v>
       </c>
       <c r="C74" t="n">
-        <v>10465.5</v>
+        <v>9031.24</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.19402</v>
+        <v>2.1937</v>
       </c>
       <c r="B75" t="n">
-        <v>10.439</v>
+        <v>8.928270000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>10439</v>
+        <v>8928.27</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.22388</v>
+        <v>2.22396</v>
       </c>
       <c r="B76" t="n">
-        <v>10.4104</v>
+        <v>8.82145</v>
       </c>
       <c r="C76" t="n">
-        <v>10410.4</v>
+        <v>8821.450000000001</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.25375</v>
+        <v>2.25376</v>
       </c>
       <c r="B77" t="n">
-        <v>10.3798</v>
+        <v>8.712190000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>10379.8</v>
+        <v>8712.190000000001</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.28362</v>
+        <v>2.28378</v>
       </c>
       <c r="B78" t="n">
-        <v>10.3473</v>
+        <v>8.600190000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>10347.3</v>
+        <v>8600.190000000001</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.31348</v>
+        <v>2.31394</v>
       </c>
       <c r="B79" t="n">
-        <v>10.3127</v>
+        <v>8.48503</v>
       </c>
       <c r="C79" t="n">
-        <v>10312.7</v>
+        <v>8485.030000000001</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.34335</v>
+        <v>2.34356</v>
       </c>
       <c r="B80" t="n">
-        <v>10.276</v>
+        <v>8.36842</v>
       </c>
       <c r="C80" t="n">
-        <v>10276</v>
+        <v>8368.42</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.37322</v>
+        <v>2.37265</v>
       </c>
       <c r="B81" t="n">
-        <v>10.2372</v>
+        <v>8.252459999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>10237.2</v>
+        <v>8252.459999999999</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.40308</v>
+        <v>2.40386</v>
       </c>
       <c r="B82" t="n">
-        <v>10.1959</v>
+        <v>8.12593</v>
       </c>
       <c r="C82" t="n">
-        <v>10195.9</v>
+        <v>8125.93</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.43295</v>
+        <v>2.43404</v>
       </c>
       <c r="B83" t="n">
-        <v>10.1521</v>
+        <v>8.001189999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>10152.1</v>
+        <v>8001.19</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.46282</v>
+        <v>2.46391</v>
       </c>
       <c r="B84" t="n">
-        <v>10.1058</v>
+        <v>7.87889</v>
       </c>
       <c r="C84" t="n">
-        <v>10105.8</v>
+        <v>7878.89</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.49268</v>
+        <v>2.49244</v>
       </c>
       <c r="B85" t="n">
-        <v>10.0568</v>
+        <v>7.75894</v>
       </c>
       <c r="C85" t="n">
-        <v>10056.8</v>
+        <v>7758.94</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.52255</v>
+        <v>2.52351</v>
       </c>
       <c r="B86" t="n">
-        <v>10.0054</v>
+        <v>7.63041</v>
       </c>
       <c r="C86" t="n">
-        <v>10005.4</v>
+        <v>7630.41</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.55187</v>
+        <v>2.55406</v>
       </c>
       <c r="B87" t="n">
-        <v>9.95173</v>
+        <v>7.50048</v>
       </c>
       <c r="C87" t="n">
-        <v>9951.73</v>
+        <v>7500.48</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.58241</v>
+        <v>2.58446</v>
       </c>
       <c r="B88" t="n">
-        <v>9.893049999999999</v>
+        <v>7.37344</v>
       </c>
       <c r="C88" t="n">
-        <v>9893.049999999999</v>
+        <v>7373.44</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.61258</v>
+        <v>2.61371</v>
       </c>
       <c r="B89" t="n">
-        <v>9.831110000000001</v>
+        <v>7.24919</v>
       </c>
       <c r="C89" t="n">
-        <v>9831.110000000001</v>
+        <v>7249.19</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.64245</v>
+        <v>2.64251</v>
       </c>
       <c r="B90" t="n">
-        <v>9.76699</v>
+        <v>7.128</v>
       </c>
       <c r="C90" t="n">
-        <v>9766.99</v>
+        <v>7128</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.67171</v>
+        <v>2.67257</v>
       </c>
       <c r="B91" t="n">
-        <v>9.70073</v>
+        <v>7.00274</v>
       </c>
       <c r="C91" t="n">
-        <v>9700.73</v>
+        <v>7002.74</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.7024</v>
+        <v>2.70366</v>
       </c>
       <c r="B92" t="n">
-        <v>9.62739</v>
+        <v>6.870130000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>9627.389999999999</v>
+        <v>6870.13</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.73251</v>
+        <v>2.73475</v>
       </c>
       <c r="B93" t="n">
-        <v>9.55199</v>
+        <v>6.74068</v>
       </c>
       <c r="C93" t="n">
-        <v>9551.99</v>
+        <v>6740.68</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.76205</v>
+        <v>2.76463</v>
       </c>
       <c r="B94" t="n">
-        <v>9.47479</v>
+        <v>6.614470000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>9474.790000000001</v>
+        <v>6614.47</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.79216</v>
+        <v>2.79389</v>
       </c>
       <c r="B95" t="n">
-        <v>9.391389999999999</v>
+        <v>6.49094</v>
       </c>
       <c r="C95" t="n">
-        <v>9391.389999999999</v>
+        <v>6490.94</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.82261</v>
+        <v>2.82314</v>
       </c>
       <c r="B96" t="n">
-        <v>9.30368</v>
+        <v>6.37124</v>
       </c>
       <c r="C96" t="n">
-        <v>9303.68</v>
+        <v>6371.24</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.85248</v>
+        <v>2.85122</v>
       </c>
       <c r="B97" t="n">
-        <v>9.21416</v>
+        <v>6.255020000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>9214.16</v>
+        <v>6255.02</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.88153</v>
+        <v>2.88209</v>
       </c>
       <c r="B98" t="n">
-        <v>9.12261</v>
+        <v>6.12659</v>
       </c>
       <c r="C98" t="n">
-        <v>9122.610000000001</v>
+        <v>6126.59</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2.91249</v>
+        <v>2.91409</v>
       </c>
       <c r="B99" t="n">
-        <v>9.022209999999999</v>
+        <v>5.99753</v>
       </c>
       <c r="C99" t="n">
-        <v>9022.209999999999</v>
+        <v>5997.53</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2.94274</v>
+        <v>2.94448</v>
       </c>
       <c r="B100" t="n">
-        <v>8.92089</v>
+        <v>5.87545</v>
       </c>
       <c r="C100" t="n">
-        <v>8920.889999999999</v>
+        <v>5875.45</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2.97201</v>
+        <v>2.97435</v>
       </c>
       <c r="B101" t="n">
-        <v>8.819049999999999</v>
+        <v>5.757149999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>8819.049999999999</v>
+        <v>5757.15</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.00193</v>
+        <v>3.00422</v>
       </c>
       <c r="B102" t="n">
-        <v>8.71284</v>
+        <v>5.64138</v>
       </c>
       <c r="C102" t="n">
-        <v>8712.84</v>
+        <v>5641.38</v>
       </c>
     </row>
   </sheetData>
